--- a/data/Hargalagpasartradisionallagvariable.xlsx
+++ b/data/Hargalagpasartradisionallagvariable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihsan\Desktop\LULUS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA572C1-C4D7-432F-BB40-46AF481ED169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A2584D-84E9-4E91-908B-65E4889AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet!$A$1:$D$6326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet!$A$1:$C$6326</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="317">
   <si>
     <t>01/ 01/ 2018</t>
   </si>
@@ -966,30 +966,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>34,400</t>
-  </si>
-  <si>
-    <t>38,700</t>
-  </si>
-  <si>
-    <t>37,600</t>
-  </si>
-  <si>
-    <t>38,150</t>
-  </si>
-  <si>
-    <t>32,750</t>
-  </si>
-  <si>
-    <t>43,500</t>
-  </si>
-  <si>
-    <t>54,200</t>
-  </si>
-  <si>
-    <t>Harga Bawang Putih</t>
   </si>
   <si>
     <t>Harga Cabai Merah</t>
@@ -1366,42 +1342,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F315"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="1" sqref="E1 F2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="165" width="8.109375" customWidth="1"/>
-    <col min="166" max="170" width="8.33203125" customWidth="1"/>
-    <col min="171" max="234" width="8.109375" customWidth="1"/>
-    <col min="235" max="236" width="8.33203125" customWidth="1"/>
-    <col min="237" max="237" width="8.88671875" customWidth="1"/>
-    <col min="238" max="238" width="8.33203125" customWidth="1"/>
-    <col min="239" max="309" width="8.109375" customWidth="1"/>
-    <col min="310" max="311" width="8.33203125" customWidth="1"/>
-    <col min="312" max="312" width="8.109375" customWidth="1"/>
-    <col min="313" max="313" width="8" customWidth="1"/>
+    <col min="1" max="164" width="8.140625" customWidth="1"/>
+    <col min="165" max="169" width="8.28515625" customWidth="1"/>
+    <col min="170" max="233" width="8.140625" customWidth="1"/>
+    <col min="234" max="235" width="8.28515625" customWidth="1"/>
+    <col min="236" max="236" width="8.85546875" customWidth="1"/>
+    <col min="237" max="237" width="8.28515625" customWidth="1"/>
+    <col min="238" max="308" width="8.140625" customWidth="1"/>
+    <col min="309" max="310" width="8.28515625" customWidth="1"/>
+    <col min="311" max="311" width="8.140625" customWidth="1"/>
+    <col min="312" max="312" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1411,515 +1384,404 @@
       <c r="C2" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>38300</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="2">
-        <v>38300</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>24300</v>
+        <v>42800</v>
       </c>
       <c r="C4" s="2">
-        <v>42800</v>
-      </c>
-      <c r="D4" s="2">
         <v>42600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>24200</v>
+        <v>37850</v>
       </c>
       <c r="C5" s="2">
-        <v>37850</v>
-      </c>
-      <c r="D5" s="2">
         <v>42700</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>23100</v>
+        <v>38950</v>
       </c>
       <c r="C6" s="2">
-        <v>38950</v>
-      </c>
-      <c r="D6" s="2">
         <v>42600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>22850</v>
+        <v>41750</v>
       </c>
       <c r="C7" s="2">
-        <v>41750</v>
-      </c>
-      <c r="D7" s="2">
         <v>42500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>23200</v>
+        <v>44200</v>
       </c>
       <c r="C8" s="2">
-        <v>44200</v>
-      </c>
-      <c r="D8" s="2">
         <v>40500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>30100</v>
+        <v>44600</v>
       </c>
       <c r="C9" s="2">
-        <v>44600</v>
-      </c>
-      <c r="D9" s="2">
         <v>42000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>33550</v>
+        <v>38150</v>
       </c>
       <c r="C10" s="2">
-        <v>38150</v>
-      </c>
-      <c r="D10" s="2">
         <v>44300</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>34400</v>
+        <v>40050</v>
       </c>
       <c r="C11" s="2">
-        <v>40050</v>
-      </c>
-      <c r="D11" s="2">
         <v>43500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>34400</v>
+        <v>45250</v>
       </c>
       <c r="C12" s="2">
-        <v>45250</v>
-      </c>
-      <c r="D12" s="2">
         <v>47350</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>33750</v>
+        <v>47400</v>
       </c>
       <c r="C13" s="2">
-        <v>47400</v>
-      </c>
-      <c r="D13" s="2">
         <v>48650</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>35500</v>
+        <v>45950</v>
       </c>
       <c r="C14" s="2">
-        <v>45950</v>
-      </c>
-      <c r="D14" s="2">
         <v>46850</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>36450</v>
+        <v>45050</v>
       </c>
       <c r="C15" s="2">
-        <v>45050</v>
-      </c>
-      <c r="D15" s="2">
         <v>43350</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>36150</v>
+        <v>47900</v>
       </c>
       <c r="C16" s="2">
-        <v>47900</v>
-      </c>
-      <c r="D16" s="2">
         <v>41700</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>35650</v>
+        <v>45700</v>
       </c>
       <c r="C17" s="2">
-        <v>45700</v>
-      </c>
-      <c r="D17" s="2">
         <v>40600</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>35300</v>
+        <v>38800</v>
       </c>
       <c r="C18" s="2">
-        <v>38800</v>
-      </c>
-      <c r="D18" s="2">
         <v>36950</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>34450</v>
+        <v>37150</v>
       </c>
       <c r="C19" s="2">
-        <v>37150</v>
-      </c>
-      <c r="D19" s="2">
         <v>32700</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>32550</v>
+        <v>36300</v>
       </c>
       <c r="C20" s="2">
-        <v>36300</v>
-      </c>
-      <c r="D20" s="2">
         <v>30950</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>29950</v>
+        <v>36850</v>
       </c>
       <c r="C21" s="2">
-        <v>36850</v>
-      </c>
-      <c r="D21" s="2">
         <v>30500</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>28700</v>
+        <v>36100</v>
       </c>
       <c r="C22" s="2">
-        <v>36100</v>
-      </c>
-      <c r="D22" s="2">
         <v>31550</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>27800</v>
+        <v>31750</v>
       </c>
       <c r="C23" s="2">
-        <v>31750</v>
-      </c>
-      <c r="D23" s="2">
         <v>33300</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>27500</v>
+        <v>32050</v>
       </c>
       <c r="C24" s="2">
-        <v>32050</v>
-      </c>
-      <c r="D24" s="2">
         <v>29500</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>27350</v>
+        <v>51800</v>
       </c>
       <c r="C25" s="2">
-        <v>51800</v>
-      </c>
-      <c r="D25" s="2">
         <v>30350</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>28450</v>
+        <v>49550</v>
       </c>
       <c r="C26" s="2">
-        <v>49550</v>
-      </c>
-      <c r="D26" s="2">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>29550</v>
+        <v>32250</v>
       </c>
       <c r="C27" s="2">
-        <v>32250</v>
-      </c>
-      <c r="D27" s="2">
         <v>48450</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>28350</v>
+        <v>32950</v>
       </c>
       <c r="C28" s="2">
-        <v>32950</v>
-      </c>
-      <c r="D28" s="2">
         <v>38300</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>28550</v>
+        <v>37250</v>
       </c>
       <c r="C29" s="2">
-        <v>37250</v>
-      </c>
-      <c r="D29" s="2">
         <v>46900</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>27900</v>
+        <v>37000</v>
       </c>
       <c r="C30" s="2">
-        <v>37000</v>
-      </c>
-      <c r="D30" s="2">
         <v>48100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>27150</v>
+        <v>32650</v>
       </c>
       <c r="C31" s="2">
-        <v>32650</v>
-      </c>
-      <c r="D31" s="2">
         <v>49400</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>26600</v>
+        <v>31050</v>
       </c>
       <c r="C32" s="2">
-        <v>31050</v>
-      </c>
-      <c r="D32" s="2">
         <v>48850</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>26100</v>
+        <v>28900</v>
       </c>
       <c r="C33" s="2">
-        <v>28900</v>
-      </c>
-      <c r="D33" s="2">
         <v>44700</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>25550</v>
+        <v>28450</v>
       </c>
       <c r="C34" s="2">
-        <v>28450</v>
-      </c>
-      <c r="D34" s="2">
         <v>40700</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>25700</v>
+        <v>30350</v>
       </c>
       <c r="C35" s="2">
-        <v>30350</v>
-      </c>
-      <c r="D35" s="2">
         <v>37900</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>25500</v>
+        <v>28900</v>
       </c>
       <c r="C36" s="2">
-        <v>28900</v>
-      </c>
-      <c r="D36" s="2">
         <v>37550</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>25500</v>
+        <v>25050</v>
       </c>
       <c r="C37" s="2">
-        <v>25050</v>
-      </c>
-      <c r="D37" s="2">
         <v>34600</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>25500</v>
+        <v>24050</v>
       </c>
       <c r="C38" s="2">
-        <v>24050</v>
-      </c>
-      <c r="D38" s="2">
         <v>31000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1927,1245 +1789,978 @@
         <v>24950</v>
       </c>
       <c r="C39" s="2">
-        <v>24950</v>
-      </c>
-      <c r="D39" s="2">
         <v>29150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>24850</v>
+        <v>27500</v>
       </c>
       <c r="C40" s="2">
-        <v>27500</v>
-      </c>
-      <c r="D40" s="2">
         <v>28900</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>24350</v>
+        <v>31500</v>
       </c>
       <c r="C41" s="2">
-        <v>31500</v>
-      </c>
-      <c r="D41" s="2">
         <v>29400</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>23900</v>
+        <v>36500</v>
       </c>
       <c r="C42" s="2">
-        <v>36500</v>
-      </c>
-      <c r="D42" s="2">
         <v>30100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>23900</v>
+        <v>36750</v>
       </c>
       <c r="C43" s="2">
-        <v>36750</v>
-      </c>
-      <c r="D43" s="2">
         <v>32100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>23850</v>
+        <v>36800</v>
       </c>
       <c r="C44" s="2">
-        <v>36800</v>
-      </c>
-      <c r="D44" s="2">
         <v>32350</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>24650</v>
+        <v>36350</v>
       </c>
       <c r="C45" s="2">
-        <v>36350</v>
-      </c>
-      <c r="D45" s="2">
         <v>32500</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>24950</v>
+        <v>34900</v>
       </c>
       <c r="C46" s="2">
-        <v>34900</v>
-      </c>
-      <c r="D46" s="2">
         <v>31700</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>25150</v>
+        <v>35300</v>
       </c>
       <c r="C47" s="2">
-        <v>35300</v>
-      </c>
-      <c r="D47" s="2">
         <v>30300</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>25050</v>
+        <v>35300</v>
       </c>
       <c r="C48" s="2">
-        <v>35300</v>
-      </c>
-      <c r="D48" s="2">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>24450</v>
+        <v>30650</v>
       </c>
       <c r="C49" s="2">
-        <v>30650</v>
-      </c>
-      <c r="D49" s="2">
         <v>29000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>23650</v>
+        <v>29850</v>
       </c>
       <c r="C50" s="2">
-        <v>29850</v>
-      </c>
-      <c r="D50" s="2">
         <v>27400</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>23950</v>
+        <v>30750</v>
       </c>
       <c r="C51" s="2">
-        <v>30750</v>
-      </c>
-      <c r="D51" s="2">
         <v>26950</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>23850</v>
+        <v>31000</v>
       </c>
       <c r="C52" s="2">
-        <v>31000</v>
-      </c>
-      <c r="D52" s="2">
         <v>27700</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
-        <v>23450</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D53" s="2">
+      <c r="C53" s="2">
         <v>27850</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2">
+        <v>32100</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C54" s="2">
-        <v>32100</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>23400</v>
+        <v>31400</v>
       </c>
       <c r="C55" s="2">
-        <v>31400</v>
-      </c>
-      <c r="D55" s="2">
         <v>39100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>23700</v>
+        <v>28050</v>
       </c>
       <c r="C56" s="2">
-        <v>28050</v>
-      </c>
-      <c r="D56" s="2">
         <v>38700</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>23300</v>
+        <v>26150</v>
       </c>
       <c r="C57" s="2">
-        <v>26150</v>
-      </c>
-      <c r="D57" s="2">
         <v>31200</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="C58" s="2">
-        <v>24500</v>
-      </c>
-      <c r="D58" s="2">
         <v>29300</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>24100</v>
+        <v>23450</v>
       </c>
       <c r="C59" s="2">
-        <v>23450</v>
-      </c>
-      <c r="D59" s="2">
         <v>25500</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>23800</v>
+        <v>23350</v>
       </c>
       <c r="C60" s="2">
-        <v>23350</v>
-      </c>
-      <c r="D60" s="2">
         <v>23500</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>24350</v>
+        <v>22750</v>
       </c>
       <c r="C61" s="2">
         <v>22750</v>
       </c>
-      <c r="D61" s="2">
-        <v>22750</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>26550</v>
+        <v>22050</v>
       </c>
       <c r="C62" s="2">
-        <v>22050</v>
-      </c>
-      <c r="D62" s="2">
         <v>22800</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>27700</v>
+        <v>23400</v>
       </c>
       <c r="C63" s="2">
-        <v>23400</v>
-      </c>
-      <c r="D63" s="2">
         <v>23150</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>27850</v>
+        <v>25250</v>
       </c>
       <c r="C64" s="2">
-        <v>25250</v>
-      </c>
-      <c r="D64" s="2">
         <v>25400</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>30050</v>
+        <v>26000</v>
       </c>
       <c r="C65" s="2">
-        <v>26000</v>
-      </c>
-      <c r="D65" s="2">
         <v>25350</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>33450</v>
+        <v>25950</v>
       </c>
       <c r="C66" s="2">
-        <v>25950</v>
-      </c>
-      <c r="D66" s="2">
         <v>25400</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>34650</v>
+        <v>26500</v>
       </c>
       <c r="C67" s="2">
-        <v>26500</v>
-      </c>
-      <c r="D67" s="2">
         <v>25100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>36900</v>
+        <v>27850</v>
       </c>
       <c r="C68" s="2">
-        <v>27850</v>
-      </c>
-      <c r="D68" s="2">
         <v>24700</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>38800</v>
+        <v>28700</v>
       </c>
       <c r="C69" s="2">
-        <v>28700</v>
-      </c>
-      <c r="D69" s="2">
         <v>24200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>44200</v>
+        <v>31300</v>
       </c>
       <c r="C70" s="2">
-        <v>31300</v>
-      </c>
-      <c r="D70" s="2">
         <v>24100</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>50400</v>
+        <v>30200</v>
       </c>
       <c r="C71" s="2">
-        <v>30200</v>
-      </c>
-      <c r="D71" s="2">
         <v>31550</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>51800</v>
+        <v>32950</v>
       </c>
       <c r="C72" s="2">
-        <v>32950</v>
-      </c>
-      <c r="D72" s="2">
         <v>28100</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>73900</v>
+        <v>33150</v>
       </c>
       <c r="C73" s="2">
-        <v>33150</v>
-      </c>
-      <c r="D73" s="2">
         <v>28700</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>53800</v>
+        <v>29050</v>
       </c>
       <c r="C74" s="2">
-        <v>29050</v>
-      </c>
-      <c r="D74" s="2">
         <v>29100</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>42450</v>
+        <v>32850</v>
       </c>
       <c r="C75" s="2">
-        <v>32850</v>
-      </c>
-      <c r="D75" s="2">
         <v>26300</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>38950</v>
+        <v>66100</v>
       </c>
       <c r="C76" s="2">
-        <v>66100</v>
-      </c>
-      <c r="D76" s="2">
         <v>27150</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>42300</v>
+        <v>42700</v>
       </c>
       <c r="C77" s="2">
-        <v>42700</v>
-      </c>
-      <c r="D77" s="2">
         <v>32450</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>40100</v>
+        <v>42250</v>
       </c>
       <c r="C78" s="2">
-        <v>42250</v>
-      </c>
-      <c r="D78" s="2">
         <v>31100</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>40450</v>
+        <v>53800</v>
       </c>
       <c r="C79" s="2">
-        <v>53800</v>
-      </c>
-      <c r="D79" s="2">
         <v>29600</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>40150</v>
+        <v>60950</v>
       </c>
       <c r="C80" s="2">
-        <v>60950</v>
-      </c>
-      <c r="D80" s="2">
         <v>36350</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>38950</v>
+        <v>63800</v>
       </c>
       <c r="C81" s="2">
-        <v>63800</v>
-      </c>
-      <c r="D81" s="2">
         <v>47750</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>37000</v>
+        <v>66150</v>
       </c>
       <c r="C82" s="2">
-        <v>66150</v>
-      </c>
-      <c r="D82" s="2">
         <v>60550</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>35700</v>
+        <v>66850</v>
       </c>
       <c r="C83" s="2">
-        <v>66850</v>
-      </c>
-      <c r="D83" s="2">
         <v>73950</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>35350</v>
+        <v>63800</v>
       </c>
       <c r="C84" s="2">
-        <v>63800</v>
-      </c>
-      <c r="D84" s="2">
         <v>76450</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>34950</v>
+        <v>68400</v>
       </c>
       <c r="C85" s="2">
-        <v>68400</v>
-      </c>
-      <c r="D85" s="2">
         <v>79650</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>34600</v>
+        <v>83100</v>
       </c>
       <c r="C86" s="2">
-        <v>83100</v>
-      </c>
-      <c r="D86" s="2">
         <v>80650</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>34200</v>
+        <v>61350</v>
       </c>
       <c r="C87" s="2">
-        <v>61350</v>
-      </c>
-      <c r="D87" s="2">
         <v>85500</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>33450</v>
+        <v>51100</v>
       </c>
       <c r="C88" s="2">
-        <v>51100</v>
-      </c>
-      <c r="D88" s="2">
         <v>73200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>32950</v>
+        <v>48150</v>
       </c>
       <c r="C89" s="2">
-        <v>48150</v>
-      </c>
-      <c r="D89" s="2">
         <v>62850</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>32600</v>
+        <v>45650</v>
       </c>
       <c r="C90" s="2">
-        <v>45650</v>
-      </c>
-      <c r="D90" s="2">
         <v>56150</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>32450</v>
+        <v>42550</v>
       </c>
       <c r="C91" s="2">
-        <v>42550</v>
-      </c>
-      <c r="D91" s="2">
         <v>57250</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>32400</v>
+        <v>40550</v>
       </c>
       <c r="C92" s="2">
-        <v>40550</v>
-      </c>
-      <c r="D92" s="2">
         <v>54400</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>32350</v>
+        <v>40100</v>
       </c>
       <c r="C93" s="2">
-        <v>40100</v>
-      </c>
-      <c r="D93" s="2">
         <v>47700</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>31650</v>
+        <v>42450</v>
       </c>
       <c r="C94" s="2">
-        <v>42450</v>
-      </c>
-      <c r="D94" s="2">
         <v>45550</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>31350</v>
+        <v>44350</v>
       </c>
       <c r="C95" s="2">
-        <v>44350</v>
-      </c>
-      <c r="D95" s="2">
         <v>46050</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>30950</v>
+        <v>41450</v>
       </c>
       <c r="C96" s="2">
-        <v>41450</v>
-      </c>
-      <c r="D96" s="2">
         <v>44750</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>31150</v>
+        <v>35400</v>
       </c>
       <c r="C97" s="2">
-        <v>35400</v>
-      </c>
-      <c r="D97" s="2">
         <v>40650</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>30850</v>
+        <v>32950</v>
       </c>
       <c r="C98" s="2">
-        <v>32950</v>
-      </c>
-      <c r="D98" s="2">
         <v>38150</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>30800</v>
+        <v>34850</v>
       </c>
       <c r="C99" s="2">
-        <v>34850</v>
-      </c>
-      <c r="D99" s="2">
         <v>36600</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>30750</v>
+        <v>32350</v>
       </c>
       <c r="C100" s="2">
-        <v>32350</v>
-      </c>
-      <c r="D100" s="2">
         <v>37100</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>30850</v>
+        <v>31000</v>
       </c>
       <c r="C101" s="2">
-        <v>31000</v>
-      </c>
-      <c r="D101" s="2">
         <v>35450</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>30800</v>
+        <v>29750</v>
       </c>
       <c r="C102" s="2">
-        <v>29750</v>
-      </c>
-      <c r="D102" s="2">
         <v>31900</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>31050</v>
+        <v>29850</v>
       </c>
       <c r="C103" s="2">
-        <v>29850</v>
-      </c>
-      <c r="D103" s="2">
         <v>31200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>31150</v>
+        <v>33450</v>
       </c>
       <c r="C104" s="2">
-        <v>33450</v>
-      </c>
-      <c r="D104" s="2">
         <v>32200</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>31100</v>
+        <v>40250</v>
       </c>
       <c r="C105" s="2">
-        <v>40250</v>
-      </c>
-      <c r="D105" s="2">
         <v>33100</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>31050</v>
+        <v>41900</v>
       </c>
       <c r="C106" s="2">
-        <v>41900</v>
-      </c>
-      <c r="D106" s="2">
         <v>36250</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>31300</v>
+        <v>49550</v>
       </c>
       <c r="C107" s="2">
-        <v>49550</v>
-      </c>
-      <c r="D107" s="2">
         <v>37050</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>31800</v>
+        <v>64450</v>
       </c>
       <c r="C108" s="2">
-        <v>64450</v>
-      </c>
-      <c r="D108" s="2">
         <v>48850</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>33950</v>
+        <v>65650</v>
       </c>
       <c r="C109" s="2">
-        <v>65650</v>
-      </c>
-      <c r="D109" s="2">
         <v>52450</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>34650</v>
+        <v>63900</v>
       </c>
       <c r="C110" s="2">
-        <v>63900</v>
-      </c>
-      <c r="D110" s="2">
         <v>57950</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>34350</v>
+        <v>72550</v>
       </c>
       <c r="C111" s="2">
-        <v>72550</v>
-      </c>
-      <c r="D111" s="2">
         <v>63500</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>45600</v>
+        <v>66900</v>
       </c>
       <c r="C112" s="2">
-        <v>66900</v>
-      </c>
-      <c r="D112" s="2">
         <v>62600</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>58650</v>
+        <v>56750</v>
       </c>
       <c r="C113" s="2">
-        <v>56750</v>
-      </c>
-      <c r="D113" s="2">
         <v>57350</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>51900</v>
+        <v>65050</v>
       </c>
       <c r="C114" s="2">
-        <v>65050</v>
-      </c>
-      <c r="D114" s="2">
         <v>50500</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>46850</v>
+        <v>56100</v>
       </c>
       <c r="C115" s="2">
-        <v>56100</v>
-      </c>
-      <c r="D115" s="2">
         <v>43300</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>45700</v>
+        <v>52400</v>
       </c>
       <c r="C116" s="2">
-        <v>52400</v>
-      </c>
-      <c r="D116" s="2">
         <v>38200</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>45700</v>
+        <v>49550</v>
       </c>
       <c r="C117" s="2">
-        <v>49550</v>
-      </c>
-      <c r="D117" s="2">
         <v>38450</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>45650</v>
+        <v>43300</v>
       </c>
       <c r="C118" s="2">
-        <v>43300</v>
-      </c>
-      <c r="D118" s="2">
         <v>41850</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>45850</v>
+        <v>35650</v>
       </c>
       <c r="C119" s="2">
-        <v>35650</v>
-      </c>
-      <c r="D119" s="2">
         <v>43950</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44600</v>
+        <v>30800</v>
       </c>
       <c r="C120" s="2">
-        <v>30800</v>
-      </c>
-      <c r="D120" s="2">
         <v>43700</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44200</v>
+        <v>28700</v>
       </c>
       <c r="C121" s="2">
-        <v>28700</v>
-      </c>
-      <c r="D121" s="2">
         <v>43700</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>43250</v>
+        <v>26000</v>
       </c>
       <c r="C122" s="2">
-        <v>26000</v>
-      </c>
-      <c r="D122" s="2">
         <v>41700</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>39450</v>
+        <v>30450</v>
       </c>
       <c r="C123" s="2">
-        <v>30450</v>
-      </c>
-      <c r="D123" s="2">
         <v>35450</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>38000</v>
+        <v>25550</v>
       </c>
       <c r="C124" s="2">
-        <v>25550</v>
-      </c>
-      <c r="D124" s="2">
         <v>36850</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>36800</v>
+        <v>24050</v>
       </c>
       <c r="C125" s="2">
-        <v>24050</v>
-      </c>
-      <c r="D125" s="2">
         <v>31350</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>35050</v>
+        <v>24900</v>
       </c>
       <c r="C126" s="2">
-        <v>24900</v>
-      </c>
-      <c r="D126" s="2">
         <v>28800</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="2">
-        <v>32300</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D127" s="2">
+      <c r="C127" s="2">
         <v>28150</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3175,2617 +2770,2056 @@
       <c r="C128" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="2">
+        <v>22300</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C129" s="2">
-        <v>22300</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>28950</v>
+        <v>23150</v>
       </c>
       <c r="C130" s="2">
-        <v>23150</v>
-      </c>
-      <c r="D130" s="2">
         <v>24550</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>27450</v>
+        <v>24950</v>
       </c>
       <c r="C131" s="2">
-        <v>24950</v>
-      </c>
-      <c r="D131" s="2">
         <v>24700</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>25950</v>
+        <v>25900</v>
       </c>
       <c r="C132" s="2">
-        <v>25900</v>
-      </c>
-      <c r="D132" s="2">
         <v>24350</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>24550</v>
+        <v>26050</v>
       </c>
       <c r="C133" s="2">
-        <v>26050</v>
-      </c>
-      <c r="D133" s="2">
         <v>24150</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>24150</v>
+        <v>27050</v>
       </c>
       <c r="C134" s="2">
-        <v>27050</v>
-      </c>
-      <c r="D134" s="2">
         <v>24750</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>23450</v>
+        <v>27950</v>
       </c>
       <c r="C135" s="2">
-        <v>27950</v>
-      </c>
-      <c r="D135" s="2">
         <v>25800</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>23250</v>
+        <v>27750</v>
       </c>
       <c r="C136" s="2">
-        <v>27750</v>
-      </c>
-      <c r="D136" s="2">
         <v>25900</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>22400</v>
+        <v>32750</v>
       </c>
       <c r="C137" s="2">
-        <v>32750</v>
-      </c>
-      <c r="D137" s="2">
         <v>25050</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>23200</v>
+        <v>26500</v>
       </c>
       <c r="C138" s="2">
-        <v>26500</v>
-      </c>
-      <c r="D138" s="2">
         <v>26750</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="2">
-        <v>22700</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D139" s="2">
+      <c r="C139" s="2">
         <v>25650</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="2">
+        <v>21750</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C140" s="2">
-        <v>21750</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>25050</v>
+        <v>21800</v>
       </c>
       <c r="C141" s="2">
-        <v>21800</v>
-      </c>
-      <c r="D141" s="2">
         <v>22950</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>25950</v>
+        <v>25850</v>
       </c>
       <c r="C142" s="2">
-        <v>25850</v>
-      </c>
-      <c r="D142" s="2">
         <v>22600</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>26300</v>
+        <v>26900</v>
       </c>
       <c r="C143" s="2">
-        <v>26900</v>
-      </c>
-      <c r="D143" s="2">
         <v>23700</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>26150</v>
+        <v>28050</v>
       </c>
       <c r="C144" s="2">
-        <v>28050</v>
-      </c>
-      <c r="D144" s="2">
         <v>23250</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>26200</v>
+        <v>30550</v>
       </c>
       <c r="C145" s="2">
-        <v>30550</v>
-      </c>
-      <c r="D145" s="2">
         <v>22850</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>26000</v>
+        <v>41150</v>
       </c>
       <c r="C146" s="2">
-        <v>41150</v>
-      </c>
-      <c r="D146" s="2">
         <v>23000</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>26400</v>
+        <v>44550</v>
       </c>
       <c r="C147" s="2">
-        <v>44550</v>
-      </c>
-      <c r="D147" s="2">
         <v>25000</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>26800</v>
+        <v>42000</v>
       </c>
       <c r="C148" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D148" s="2">
         <v>24100</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>26850</v>
+        <v>43150</v>
       </c>
       <c r="C149" s="2">
-        <v>43150</v>
-      </c>
-      <c r="D149" s="2">
         <v>24000</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>27200</v>
+        <v>46100</v>
       </c>
       <c r="C150" s="2">
-        <v>46100</v>
-      </c>
-      <c r="D150" s="2">
         <v>24600</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>27150</v>
+        <v>42700</v>
       </c>
       <c r="C151" s="2">
-        <v>42700</v>
-      </c>
-      <c r="D151" s="2">
         <v>25500</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>27400</v>
+        <v>40800</v>
       </c>
       <c r="C152" s="2">
-        <v>40800</v>
-      </c>
-      <c r="D152" s="2">
         <v>27650</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>27600</v>
+        <v>40050</v>
       </c>
       <c r="C153" s="2">
-        <v>40050</v>
-      </c>
-      <c r="D153" s="2">
         <v>28300</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>27850</v>
+        <v>44650</v>
       </c>
       <c r="C154" s="2">
-        <v>44650</v>
-      </c>
-      <c r="D154" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>27400</v>
+        <v>55250</v>
       </c>
       <c r="C155" s="2">
-        <v>55250</v>
-      </c>
-      <c r="D155" s="2">
         <v>34900</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>27600</v>
+        <v>57150</v>
       </c>
       <c r="C156" s="2">
-        <v>57150</v>
-      </c>
-      <c r="D156" s="2">
         <v>39700</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>27650</v>
+        <v>63100</v>
       </c>
       <c r="C157" s="2">
-        <v>63100</v>
-      </c>
-      <c r="D157" s="2">
         <v>43300</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>27650</v>
+        <v>59850</v>
       </c>
       <c r="C158" s="2">
-        <v>59850</v>
-      </c>
-      <c r="D158" s="2">
         <v>49050</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>27500</v>
+        <v>55000</v>
       </c>
       <c r="C159" s="2">
-        <v>55000</v>
-      </c>
-      <c r="D159" s="2">
         <v>56950</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>27450</v>
+        <v>48900</v>
       </c>
       <c r="C160" s="2">
-        <v>48900</v>
-      </c>
-      <c r="D160" s="2">
         <v>72850</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>27350</v>
+        <v>47200</v>
       </c>
       <c r="C161" s="2">
-        <v>47200</v>
-      </c>
-      <c r="D161" s="2">
         <v>72950</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>27300</v>
+        <v>42000</v>
       </c>
       <c r="C162" s="2">
-        <v>42000</v>
-      </c>
-      <c r="D162" s="2">
         <v>75700</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>27350</v>
+        <v>48450</v>
       </c>
       <c r="C163" s="2">
-        <v>48450</v>
-      </c>
-      <c r="D163" s="2">
         <v>75600</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>27350</v>
+        <v>55900</v>
       </c>
       <c r="C164" s="2">
-        <v>55900</v>
-      </c>
-      <c r="D164" s="2">
         <v>77400</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>27600</v>
+        <v>51250</v>
       </c>
       <c r="C165" s="2">
-        <v>51250</v>
-      </c>
-      <c r="D165" s="2">
         <v>77100</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>28100</v>
+        <v>50750</v>
       </c>
       <c r="C166" s="2">
-        <v>50750</v>
-      </c>
-      <c r="D166" s="2">
         <v>79500</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>28700</v>
+        <v>52100</v>
       </c>
       <c r="C167" s="2">
-        <v>52100</v>
-      </c>
-      <c r="D167" s="2">
         <v>84850</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>28700</v>
+        <v>50000</v>
       </c>
       <c r="C168" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D168" s="2">
         <v>90050</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>28650</v>
+        <v>48550</v>
       </c>
       <c r="C169" s="2">
-        <v>48550</v>
-      </c>
-      <c r="D169" s="2">
         <v>88400</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>28500</v>
+        <v>49050</v>
       </c>
       <c r="C170" s="2">
-        <v>49050</v>
-      </c>
-      <c r="D170" s="2">
         <v>91300</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>28400</v>
+        <v>51850</v>
       </c>
       <c r="C171" s="2">
-        <v>51850</v>
-      </c>
-      <c r="D171" s="2">
         <v>90300</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>28450</v>
+        <v>53700</v>
       </c>
       <c r="C172" s="2">
-        <v>53700</v>
-      </c>
-      <c r="D172" s="2">
         <v>82550</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>28400</v>
+        <v>54100</v>
       </c>
       <c r="C173" s="2">
-        <v>54100</v>
-      </c>
-      <c r="D173" s="2">
         <v>68400</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>29000</v>
+        <v>53350</v>
       </c>
       <c r="C174" s="2">
-        <v>53350</v>
-      </c>
-      <c r="D174" s="2">
         <v>66550</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>28600</v>
+        <v>43100</v>
       </c>
       <c r="C175" s="2">
-        <v>43100</v>
-      </c>
-      <c r="D175" s="2">
         <v>59350</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>28800</v>
+        <v>40200</v>
       </c>
       <c r="C176" s="2">
-        <v>40200</v>
-      </c>
-      <c r="D176" s="2">
         <v>47600</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>27850</v>
+        <v>56050</v>
       </c>
       <c r="C177" s="2">
-        <v>56050</v>
-      </c>
-      <c r="D177" s="2">
         <v>48700</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>28850</v>
+        <v>46250</v>
       </c>
       <c r="C178" s="2">
-        <v>46250</v>
-      </c>
-      <c r="D178" s="2">
         <v>55450</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>28750</v>
+        <v>36500</v>
       </c>
       <c r="C179" s="2">
-        <v>36500</v>
-      </c>
-      <c r="D179" s="2">
         <v>52350</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>28600</v>
+        <v>31300</v>
       </c>
       <c r="C180" s="2">
-        <v>31300</v>
-      </c>
-      <c r="D180" s="2">
         <v>41500</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>28400</v>
+        <v>29800</v>
       </c>
       <c r="C181" s="2">
-        <v>29800</v>
-      </c>
-      <c r="D181" s="2">
         <v>36600</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>28450</v>
+        <v>28650</v>
       </c>
       <c r="C182" s="2">
-        <v>28650</v>
-      </c>
-      <c r="D182" s="2">
         <v>34500</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>28350</v>
+        <v>26700</v>
       </c>
       <c r="C183" s="2">
-        <v>26700</v>
-      </c>
-      <c r="D183" s="2">
         <v>35150</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>28350</v>
+        <v>28400</v>
       </c>
       <c r="C184" s="2">
-        <v>28400</v>
-      </c>
-      <c r="D184" s="2">
         <v>39500</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>28300</v>
+        <v>27800</v>
       </c>
       <c r="C185" s="2">
-        <v>27800</v>
-      </c>
-      <c r="D185" s="2">
         <v>44800</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>28150</v>
+        <v>27600</v>
       </c>
       <c r="C186" s="2">
-        <v>27600</v>
-      </c>
-      <c r="D186" s="2">
         <v>46100</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>28300</v>
+        <v>36150</v>
       </c>
       <c r="C187" s="2">
-        <v>36150</v>
-      </c>
-      <c r="D187" s="2">
         <v>47750</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>28650</v>
+        <v>32100</v>
       </c>
       <c r="C188" s="2">
-        <v>32100</v>
-      </c>
-      <c r="D188" s="2">
         <v>51350</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>28600</v>
+        <v>27550</v>
       </c>
       <c r="C189" s="2">
-        <v>27550</v>
-      </c>
-      <c r="D189" s="2">
         <v>46650</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>29000</v>
+        <v>26100</v>
       </c>
       <c r="C190" s="2">
-        <v>26100</v>
-      </c>
-      <c r="D190" s="2">
         <v>38200</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>28950</v>
+        <v>25050</v>
       </c>
       <c r="C191" s="2">
-        <v>25050</v>
-      </c>
-      <c r="D191" s="2">
         <v>32950</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>28850</v>
+        <v>23850</v>
       </c>
       <c r="C192" s="2">
-        <v>23850</v>
-      </c>
-      <c r="D192" s="2">
         <v>28450</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>28550</v>
+        <v>24050</v>
       </c>
       <c r="C193" s="2">
-        <v>24050</v>
-      </c>
-      <c r="D193" s="2">
         <v>25800</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>28400</v>
+        <v>24850</v>
       </c>
       <c r="C194" s="2">
-        <v>24850</v>
-      </c>
-      <c r="D194" s="2">
         <v>25350</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>28450</v>
+        <v>25400</v>
       </c>
       <c r="C195" s="2">
-        <v>25400</v>
-      </c>
-      <c r="D195" s="2">
         <v>26100</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>28400</v>
+        <v>26550</v>
       </c>
       <c r="C196" s="2">
-        <v>26550</v>
-      </c>
-      <c r="D196" s="2">
         <v>26000</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>28100</v>
+        <v>27950</v>
       </c>
       <c r="C197" s="2">
-        <v>27950</v>
-      </c>
-      <c r="D197" s="2">
         <v>26500</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>28100</v>
+        <v>33250</v>
       </c>
       <c r="C198" s="2">
-        <v>33250</v>
-      </c>
-      <c r="D198" s="2">
         <v>26950</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>28100</v>
+        <v>35800</v>
       </c>
       <c r="C199" s="2">
-        <v>35800</v>
-      </c>
-      <c r="D199" s="2">
         <v>28950</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>28050</v>
+        <v>33850</v>
       </c>
       <c r="C200" s="2">
-        <v>33850</v>
-      </c>
-      <c r="D200" s="2">
         <v>30500</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>28200</v>
+        <v>32500</v>
       </c>
       <c r="C201" s="2">
-        <v>32500</v>
-      </c>
-      <c r="D201" s="2">
         <v>30300</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>28100</v>
+        <v>34600</v>
       </c>
       <c r="C202" s="2">
-        <v>34600</v>
-      </c>
-      <c r="D202" s="2">
         <v>28850</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>28100</v>
+        <v>40750</v>
       </c>
       <c r="C203" s="2">
-        <v>40750</v>
-      </c>
-      <c r="D203" s="2">
         <v>27050</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>28100</v>
+        <v>43200</v>
       </c>
       <c r="C204" s="2">
-        <v>43200</v>
-      </c>
-      <c r="D204" s="2">
         <v>26450</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>27950</v>
+        <v>45950</v>
       </c>
       <c r="C205" s="2">
-        <v>45950</v>
-      </c>
-      <c r="D205" s="2">
         <v>26150</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>27850</v>
+        <v>45700</v>
       </c>
       <c r="C206" s="2">
-        <v>45700</v>
-      </c>
-      <c r="D206" s="2">
         <v>29500</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>27950</v>
+        <v>50900</v>
       </c>
       <c r="C207" s="2">
-        <v>50900</v>
-      </c>
-      <c r="D207" s="2">
         <v>37400</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>27950</v>
+        <v>47650</v>
       </c>
       <c r="C208" s="2">
-        <v>47650</v>
-      </c>
-      <c r="D208" s="2">
         <v>56150</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>28100</v>
+        <v>43500</v>
       </c>
       <c r="C209" s="2">
-        <v>43500</v>
-      </c>
-      <c r="D209" s="2">
         <v>65600</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>28300</v>
+        <v>40600</v>
       </c>
       <c r="C210" s="2">
-        <v>40600</v>
-      </c>
-      <c r="D210" s="2">
         <v>71200</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>28350</v>
+        <v>38350</v>
       </c>
       <c r="C211" s="2">
-        <v>38350</v>
-      </c>
-      <c r="D211" s="2">
         <v>74700</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>28500</v>
+        <v>32250</v>
       </c>
       <c r="C212" s="2">
-        <v>32250</v>
-      </c>
-      <c r="D212" s="2">
         <v>74350</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>28700</v>
+        <v>32150</v>
       </c>
       <c r="C213" s="2">
-        <v>32150</v>
-      </c>
-      <c r="D213" s="2">
         <v>61550</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>28700</v>
+        <v>32300</v>
       </c>
       <c r="C214" s="2">
-        <v>32300</v>
-      </c>
-      <c r="D214" s="2">
         <v>54500</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>28700</v>
+        <v>30400</v>
       </c>
       <c r="C215" s="2">
-        <v>30400</v>
-      </c>
-      <c r="D215" s="2">
         <v>43600</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>28700</v>
+        <v>31650</v>
       </c>
       <c r="C216" s="2">
-        <v>31650</v>
-      </c>
-      <c r="D216" s="2">
         <v>37700</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>28650</v>
+        <v>35850</v>
       </c>
       <c r="C217" s="2">
-        <v>35850</v>
-      </c>
-      <c r="D217" s="2">
         <v>41300</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>28800</v>
+        <v>38550</v>
       </c>
       <c r="C218" s="2">
-        <v>38550</v>
-      </c>
-      <c r="D218" s="2">
         <v>40000</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
-      <c r="B219" s="2">
-        <v>28900</v>
-      </c>
-      <c r="C219" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D219" s="2">
+      <c r="C219" s="2">
         <v>40950</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="2">
+        <v>47850</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C220" s="2">
-        <v>47850</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>28950</v>
+        <v>49200</v>
       </c>
       <c r="C221" s="2">
-        <v>49200</v>
-      </c>
-      <c r="D221" s="2">
         <v>54250</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>30600</v>
+        <v>48500</v>
       </c>
       <c r="C222" s="2">
-        <v>48500</v>
-      </c>
-      <c r="D222" s="2">
         <v>53250</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>31300</v>
+        <v>48050</v>
       </c>
       <c r="C223" s="2">
-        <v>48050</v>
-      </c>
-      <c r="D223" s="2">
         <v>50400</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>31600</v>
+        <v>57450</v>
       </c>
       <c r="C224" s="2">
-        <v>57450</v>
-      </c>
-      <c r="D224" s="2">
         <v>46250</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>31900</v>
+        <v>43900</v>
       </c>
       <c r="C225" s="2">
-        <v>43900</v>
-      </c>
-      <c r="D225" s="2">
         <v>49950</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>32200</v>
+        <v>37900</v>
       </c>
       <c r="C226" s="2">
-        <v>37900</v>
-      </c>
-      <c r="D226" s="2">
         <v>44100</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>32100</v>
+        <v>46450</v>
       </c>
       <c r="C227" s="2">
-        <v>46450</v>
-      </c>
-      <c r="D227" s="2">
         <v>38700</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
-      <c r="B228" s="2">
-        <v>32600</v>
-      </c>
-      <c r="C228" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D228" s="2">
+      <c r="C228" s="2">
         <v>39250</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="2">
+        <v>43350</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C229" s="2">
-        <v>43350</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
-      <c r="B230" s="2">
-        <v>32350</v>
-      </c>
-      <c r="C230" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D230" s="2">
+      <c r="C230" s="2">
         <v>39050</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="2">
+        <v>52400</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C231" s="2">
-        <v>52400</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>30850</v>
+        <v>58900</v>
       </c>
       <c r="C232" s="2">
-        <v>58900</v>
-      </c>
-      <c r="D232" s="2">
         <v>49700</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>30550</v>
+        <v>68400</v>
       </c>
       <c r="C233" s="2">
-        <v>68400</v>
-      </c>
-      <c r="D233" s="2">
         <v>59850</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>30050</v>
+        <v>76100</v>
       </c>
       <c r="C234" s="2">
-        <v>76100</v>
-      </c>
-      <c r="D234" s="2">
         <v>78100</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>29200</v>
+        <v>79350</v>
       </c>
       <c r="C235" s="2">
-        <v>79350</v>
-      </c>
-      <c r="D235" s="2">
         <v>85800</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>29150</v>
+        <v>78200</v>
       </c>
       <c r="C236" s="2">
-        <v>78200</v>
-      </c>
-      <c r="D236" s="2">
         <v>87850</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>29000</v>
+        <v>89750</v>
       </c>
       <c r="C237" s="2">
-        <v>89750</v>
-      </c>
-      <c r="D237" s="2">
         <v>88700</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>28950</v>
+        <v>109450</v>
       </c>
       <c r="C238" s="2">
-        <v>109450</v>
-      </c>
-      <c r="D238" s="2">
         <v>94550</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>29450</v>
+        <v>98550</v>
       </c>
       <c r="C239" s="2">
-        <v>98550</v>
-      </c>
-      <c r="D239" s="2">
         <v>100750</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>28950</v>
+        <v>85400</v>
       </c>
       <c r="C240" s="2">
-        <v>85400</v>
-      </c>
-      <c r="D240" s="2">
         <v>84600</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>29050</v>
+        <v>76950</v>
       </c>
       <c r="C241" s="2">
-        <v>76950</v>
-      </c>
-      <c r="D241" s="2">
         <v>68400</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>28450</v>
+        <v>72500</v>
       </c>
       <c r="C242" s="2">
-        <v>72500</v>
-      </c>
-      <c r="D242" s="2">
         <v>64250</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>28450</v>
+        <v>69750</v>
       </c>
       <c r="C243" s="2">
-        <v>69750</v>
-      </c>
-      <c r="D243" s="2">
         <v>63050</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>28300</v>
+        <v>66900</v>
       </c>
       <c r="C244" s="2">
-        <v>66900</v>
-      </c>
-      <c r="D244" s="2">
         <v>59050</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>28100</v>
+        <v>60850</v>
       </c>
       <c r="C245" s="2">
-        <v>60850</v>
-      </c>
-      <c r="D245" s="2">
         <v>54400</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>28000</v>
+        <v>70650</v>
       </c>
       <c r="C246" s="2">
-        <v>70650</v>
-      </c>
-      <c r="D246" s="2">
         <v>47700</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>28150</v>
+        <v>71900</v>
       </c>
       <c r="C247" s="2">
-        <v>71900</v>
-      </c>
-      <c r="D247" s="2">
         <v>54250</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>28200</v>
+        <v>63300</v>
       </c>
       <c r="C248" s="2">
-        <v>63300</v>
-      </c>
-      <c r="D248" s="2">
         <v>55350</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>28200</v>
+        <v>56050</v>
       </c>
       <c r="C249" s="2">
-        <v>56050</v>
-      </c>
-      <c r="D249" s="2">
         <v>58450</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>28150</v>
+        <v>54900</v>
       </c>
       <c r="C250" s="2">
-        <v>54900</v>
-      </c>
-      <c r="D250" s="2">
         <v>53800</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>28100</v>
+        <v>58100</v>
       </c>
       <c r="C251" s="2">
-        <v>58100</v>
-      </c>
-      <c r="D251" s="2">
         <v>52200</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>250</v>
       </c>
       <c r="B252" s="2">
-        <v>28250</v>
+        <v>52450</v>
       </c>
       <c r="C252" s="2">
-        <v>52450</v>
-      </c>
-      <c r="D252" s="2">
         <v>50100</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>251</v>
       </c>
       <c r="B253" s="2">
-        <v>27850</v>
+        <v>44250</v>
       </c>
       <c r="C253" s="2">
-        <v>44250</v>
-      </c>
-      <c r="D253" s="2">
         <v>45450</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>252</v>
       </c>
       <c r="B254" s="2">
-        <v>27750</v>
+        <v>43200</v>
       </c>
       <c r="C254" s="2">
-        <v>43200</v>
-      </c>
-      <c r="D254" s="2">
         <v>39150</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>253</v>
       </c>
       <c r="B255" s="2">
-        <v>27900</v>
+        <v>39000</v>
       </c>
       <c r="C255" s="2">
-        <v>39000</v>
-      </c>
-      <c r="D255" s="2">
         <v>37650</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>254</v>
       </c>
       <c r="B256" s="2">
-        <v>27650</v>
+        <v>34900</v>
       </c>
       <c r="C256" s="2">
         <v>34900</v>
       </c>
-      <c r="D256" s="2">
-        <v>34900</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>255</v>
       </c>
       <c r="B257" s="2">
-        <v>27550</v>
+        <v>33900</v>
       </c>
       <c r="C257" s="2">
-        <v>33900</v>
-      </c>
-      <c r="D257" s="2">
         <v>32500</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>256</v>
       </c>
       <c r="B258" s="2">
-        <v>26950</v>
+        <v>34100</v>
       </c>
       <c r="C258" s="2">
-        <v>34100</v>
-      </c>
-      <c r="D258" s="2">
         <v>33600</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>257</v>
       </c>
       <c r="B259" s="2">
-        <v>26950</v>
+        <v>36400</v>
       </c>
       <c r="C259" s="2">
-        <v>36400</v>
-      </c>
-      <c r="D259" s="2">
         <v>34750</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
       <c r="B260" s="2">
-        <v>26900</v>
+        <v>36850</v>
       </c>
       <c r="C260" s="2">
-        <v>36850</v>
-      </c>
-      <c r="D260" s="2">
         <v>43050</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>259</v>
       </c>
       <c r="B261" s="2">
-        <v>27350</v>
+        <v>35400</v>
       </c>
       <c r="C261" s="2">
-        <v>35400</v>
-      </c>
-      <c r="D261" s="2">
         <v>52350</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>260</v>
       </c>
       <c r="B262" s="2">
-        <v>28100</v>
+        <v>35650</v>
       </c>
       <c r="C262" s="2">
-        <v>35650</v>
-      </c>
-      <c r="D262" s="2">
         <v>49300</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>261</v>
       </c>
       <c r="B263" s="2">
-        <v>28550</v>
+        <v>39250</v>
       </c>
       <c r="C263" s="2">
-        <v>39250</v>
-      </c>
-      <c r="D263" s="2">
         <v>50200</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>262</v>
       </c>
       <c r="B264" s="2">
-        <v>28400</v>
+        <v>43300</v>
       </c>
       <c r="C264" s="2">
-        <v>43300</v>
-      </c>
-      <c r="D264" s="2">
         <v>72150</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>263</v>
       </c>
       <c r="B265" s="2">
-        <v>28250</v>
+        <v>43550</v>
       </c>
       <c r="C265" s="2">
-        <v>43550</v>
-      </c>
-      <c r="D265" s="2">
         <v>68150</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>264</v>
       </c>
       <c r="B266" s="2">
-        <v>28250</v>
+        <v>42200</v>
       </c>
       <c r="C266" s="2">
-        <v>42200</v>
-      </c>
-      <c r="D266" s="2">
         <v>59500</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>265</v>
       </c>
       <c r="B267" s="2">
-        <v>28450</v>
+        <v>41450</v>
       </c>
       <c r="C267" s="2">
-        <v>41450</v>
-      </c>
-      <c r="D267" s="2">
         <v>56300</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>266</v>
       </c>
       <c r="B268" s="2">
-        <v>28950</v>
+        <v>43150</v>
       </c>
       <c r="C268" s="2">
-        <v>43150</v>
-      </c>
-      <c r="D268" s="2">
         <v>54700</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>267</v>
       </c>
       <c r="B269" s="2">
-        <v>29900</v>
+        <v>43100</v>
       </c>
       <c r="C269" s="2">
-        <v>43100</v>
-      </c>
-      <c r="D269" s="2">
         <v>55600</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>268</v>
       </c>
       <c r="B270" s="2">
-        <v>29850</v>
+        <v>49650</v>
       </c>
       <c r="C270" s="2">
-        <v>49650</v>
-      </c>
-      <c r="D270" s="2">
         <v>57800</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>269</v>
       </c>
       <c r="B271" s="2">
-        <v>30200</v>
+        <v>46600</v>
       </c>
       <c r="C271" s="2">
-        <v>46600</v>
-      </c>
-      <c r="D271" s="2">
         <v>63950</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>270</v>
       </c>
       <c r="B272" s="2">
-        <v>31650</v>
+        <v>42550</v>
       </c>
       <c r="C272" s="2">
-        <v>42550</v>
-      </c>
-      <c r="D272" s="2">
         <v>61150</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>271</v>
       </c>
       <c r="B273" s="2">
-        <v>32700</v>
+        <v>42250</v>
       </c>
       <c r="C273" s="2">
-        <v>42250</v>
-      </c>
-      <c r="D273" s="2">
         <v>62500</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>272</v>
       </c>
       <c r="B274" s="2">
-        <v>34650</v>
+        <v>43850</v>
       </c>
       <c r="C274" s="2">
-        <v>43850</v>
-      </c>
-      <c r="D274" s="2">
         <v>63300</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>273</v>
       </c>
       <c r="B275" s="2">
-        <v>34550</v>
+        <v>45250</v>
       </c>
       <c r="C275" s="2">
-        <v>45250</v>
-      </c>
-      <c r="D275" s="2">
         <v>64850</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>274</v>
       </c>
       <c r="B276" s="2">
-        <v>34400</v>
+        <v>38400</v>
       </c>
       <c r="C276" s="2">
-        <v>38400</v>
-      </c>
-      <c r="D276" s="2">
         <v>65450</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="2">
-        <v>33550</v>
+        <v>37000</v>
       </c>
       <c r="C277" s="2">
-        <v>37000</v>
-      </c>
-      <c r="D277" s="2">
         <v>50050</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>276</v>
       </c>
       <c r="B278" s="2">
-        <v>33550</v>
+        <v>51200</v>
       </c>
       <c r="C278" s="2">
-        <v>51200</v>
-      </c>
-      <c r="D278" s="2">
         <v>42350</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>277</v>
       </c>
       <c r="B279" s="2">
-        <v>33550</v>
+        <v>56550</v>
       </c>
       <c r="C279" s="2">
-        <v>56550</v>
-      </c>
-      <c r="D279" s="2">
         <v>45700</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>278</v>
       </c>
       <c r="B280" s="2">
-        <v>33700</v>
+        <v>48200</v>
       </c>
       <c r="C280" s="2">
-        <v>48200</v>
-      </c>
-      <c r="D280" s="2">
         <v>47450</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>279</v>
       </c>
       <c r="B281" s="2">
-        <v>37050</v>
+        <v>39000</v>
       </c>
       <c r="C281" s="2">
-        <v>39000</v>
-      </c>
-      <c r="D281" s="2">
         <v>41750</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>280</v>
       </c>
       <c r="B282" s="2">
-        <v>37250</v>
+        <v>43800</v>
       </c>
       <c r="C282" s="2">
-        <v>43800</v>
-      </c>
-      <c r="D282" s="2">
         <v>36700</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>281</v>
       </c>
       <c r="B283" s="2">
-        <v>38100</v>
+        <v>45200</v>
       </c>
       <c r="C283" s="2">
-        <v>45200</v>
-      </c>
-      <c r="D283" s="2">
         <v>36400</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>282</v>
       </c>
       <c r="B284" s="2">
-        <v>38400</v>
+        <v>43150</v>
       </c>
       <c r="C284" s="2">
-        <v>43150</v>
-      </c>
-      <c r="D284" s="2">
         <v>44500</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>283</v>
       </c>
       <c r="B285" s="2">
-        <v>38750</v>
+        <v>38000</v>
       </c>
       <c r="C285" s="2">
-        <v>38000</v>
-      </c>
-      <c r="D285" s="2">
         <v>44750</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>284</v>
       </c>
       <c r="B286" s="2">
-        <v>38850</v>
+        <v>37350</v>
       </c>
       <c r="C286" s="2">
-        <v>37350</v>
-      </c>
-      <c r="D286" s="2">
         <v>44750</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>285</v>
       </c>
       <c r="B287" s="2">
-        <v>38550</v>
+        <v>36600</v>
       </c>
       <c r="C287" s="2">
-        <v>36600</v>
-      </c>
-      <c r="D287" s="2">
         <v>44000</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>286</v>
       </c>
       <c r="B288" s="2">
-        <v>38600</v>
+        <v>48100</v>
       </c>
       <c r="C288" s="2">
-        <v>48100</v>
-      </c>
-      <c r="D288" s="2">
         <v>42600</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>287</v>
       </c>
       <c r="B289" s="2">
-        <v>38600</v>
+        <v>51850</v>
       </c>
       <c r="C289" s="2">
-        <v>51850</v>
-      </c>
-      <c r="D289" s="2">
         <v>43700</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>288</v>
       </c>
       <c r="B290" s="2">
-        <v>39450</v>
+        <v>47100</v>
       </c>
       <c r="C290" s="2">
-        <v>47100</v>
-      </c>
-      <c r="D290" s="2">
         <v>43350</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>289</v>
       </c>
       <c r="B291" s="2">
-        <v>41100</v>
+        <v>42900</v>
       </c>
       <c r="C291" s="2">
-        <v>42900</v>
-      </c>
-      <c r="D291" s="2">
         <v>41150</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>290</v>
       </c>
       <c r="B292" s="2">
-        <v>41350</v>
+        <v>40950</v>
       </c>
       <c r="C292" s="2">
-        <v>40950</v>
-      </c>
-      <c r="D292" s="2">
         <v>39450</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>291</v>
       </c>
       <c r="B293" s="2">
-        <v>41400</v>
+        <v>40750</v>
       </c>
       <c r="C293" s="2">
-        <v>40750</v>
-      </c>
-      <c r="D293" s="2">
         <v>38150</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>292</v>
       </c>
       <c r="B294" s="2">
-        <v>41650</v>
+        <v>44750</v>
       </c>
       <c r="C294" s="2">
-        <v>44750</v>
-      </c>
-      <c r="D294" s="2">
         <v>40700</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>293</v>
       </c>
       <c r="B295" s="2">
-        <v>41300</v>
+        <v>45150</v>
       </c>
       <c r="C295" s="2">
-        <v>45150</v>
-      </c>
-      <c r="D295" s="2">
         <v>42650</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>294</v>
       </c>
       <c r="B296" s="2">
-        <v>40850</v>
+        <v>47950</v>
       </c>
       <c r="C296" s="2">
-        <v>47950</v>
-      </c>
-      <c r="D296" s="2">
         <v>43250</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>295</v>
       </c>
       <c r="B297" s="2">
-        <v>40750</v>
+        <v>49800</v>
       </c>
       <c r="C297" s="2">
-        <v>49800</v>
-      </c>
-      <c r="D297" s="2">
         <v>45250</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>296</v>
       </c>
       <c r="B298" s="2">
-        <v>40450</v>
+        <v>46150</v>
       </c>
       <c r="C298" s="2">
-        <v>46150</v>
-      </c>
-      <c r="D298" s="2">
         <v>42000</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>297</v>
       </c>
       <c r="B299" s="2">
-        <v>40200</v>
+        <v>40750</v>
       </c>
       <c r="C299" s="2">
-        <v>40750</v>
-      </c>
-      <c r="D299" s="2">
         <v>39600</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>298</v>
       </c>
       <c r="B300" s="2">
-        <v>40100</v>
+        <v>39150</v>
       </c>
       <c r="C300" s="2">
-        <v>39150</v>
-      </c>
-      <c r="D300" s="2">
         <v>38600</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>299</v>
       </c>
       <c r="B301" s="2">
-        <v>39100</v>
+        <v>42700</v>
       </c>
       <c r="C301" s="2">
-        <v>42700</v>
-      </c>
-      <c r="D301" s="2">
         <v>40100</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>300</v>
       </c>
       <c r="B302" s="2">
-        <v>38600</v>
+        <v>48800</v>
       </c>
       <c r="C302" s="2">
-        <v>48800</v>
-      </c>
-      <c r="D302" s="2">
         <v>39800</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>301</v>
       </c>
       <c r="B303" s="2">
-        <v>38800</v>
+        <v>47500</v>
       </c>
       <c r="C303" s="2">
-        <v>47500</v>
-      </c>
-      <c r="D303" s="2">
         <v>42850</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>302</v>
       </c>
       <c r="B304" s="2">
-        <v>38550</v>
+        <v>44850</v>
       </c>
       <c r="C304" s="2">
-        <v>44850</v>
-      </c>
-      <c r="D304" s="2">
         <v>46200</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>303</v>
       </c>
       <c r="B305" s="2">
-        <v>38700</v>
+        <v>45550</v>
       </c>
       <c r="C305" s="2">
-        <v>45550</v>
-      </c>
-      <c r="D305" s="2">
         <v>50000</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>304</v>
       </c>
       <c r="B306" s="2">
-        <v>38550</v>
+        <v>55500</v>
       </c>
       <c r="C306" s="2">
-        <v>55500</v>
-      </c>
-      <c r="D306" s="2">
         <v>56300</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>305</v>
       </c>
       <c r="B307" s="2">
-        <v>38450</v>
+        <v>68600</v>
       </c>
       <c r="C307" s="2">
-        <v>68600</v>
-      </c>
-      <c r="D307" s="2">
         <v>69200</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>306</v>
       </c>
       <c r="B308" s="2">
-        <v>38250</v>
+        <v>75450</v>
       </c>
       <c r="C308" s="2">
-        <v>75450</v>
-      </c>
-      <c r="D308" s="2">
         <v>75900</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>307</v>
       </c>
       <c r="B309" s="2">
-        <v>38200</v>
+        <v>78500</v>
       </c>
       <c r="C309" s="2">
-        <v>78500</v>
-      </c>
-      <c r="D309" s="2">
         <v>75250</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>308</v>
       </c>
       <c r="B310" s="2">
-        <v>37450</v>
+        <v>80250</v>
       </c>
       <c r="C310" s="2">
-        <v>80250</v>
-      </c>
-      <c r="D310" s="2">
         <v>76600</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>309</v>
       </c>
       <c r="B311" s="2">
-        <v>37600</v>
+        <v>94900</v>
       </c>
       <c r="C311" s="2">
-        <v>94900</v>
-      </c>
-      <c r="D311" s="2">
         <v>79150</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>310</v>
       </c>
       <c r="B312" s="2">
-        <v>37200</v>
+        <v>99300</v>
       </c>
       <c r="C312" s="2">
-        <v>99300</v>
-      </c>
-      <c r="D312" s="2">
         <v>79100</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>311</v>
       </c>
       <c r="B313" s="2">
-        <v>38050</v>
+        <v>85000</v>
       </c>
       <c r="C313" s="2">
-        <v>85000</v>
-      </c>
-      <c r="D313" s="2">
         <v>75550</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>312</v>
       </c>
-      <c r="B314" s="2">
-        <v>39050</v>
-      </c>
-      <c r="C314" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D314" s="2">
+      <c r="C314" s="2">
         <v>66350</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D315" s="1"/>
       <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
